--- a/AfDD_2024_Annex_Table_Tab06.xlsx
+++ b/AfDD_2024_Annex_Table_Tab06.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB85F11-0770-4F90-B129-DE11FF52B0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE7E92B-11E7-46C1-9C07-E8F9D01DFBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{E011BF4A-F56C-4485-A387-F1B0105B1230}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F9CADBF7-2BE6-411D-861A-CD5507254CB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="173">
   <si>
     <t>Table 6: Basic education indicators</t>
   </si>
@@ -48,28 +48,28 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Youth literacy rate, population 15-24 years, both sexes (%, most recent measure 2013-22)</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, female (%, most recent measure 2013-22)</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, male (%, most recent measure 2013-22)</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, adjusted gender parity index (GPIA, most recent measure 2013-22)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, both sexes (%, most recent measure 2013-22)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, female (%, most recent measure 2013-22)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, male (%, most recent measure 2013-22)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, adjusted gender parity index (GPIA, most recent measure 2013-22)</t>
+    <t>Youth literacy rate, population 15-24 years, both sexes (%, most recent measure 2014-23)</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, female (%, most recent measure 2014-23)</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, male (%, most recent measure 2014-23)</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, adjusted gender parity index (GPIA, most recent measure 2014-23)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, both sexes (%, most recent measure 2014-23)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, female (%, most recent measure 2014-23)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, male (%, most recent measure 2014-23)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, adjusted gender parity index (GPIA, most recent measure 2014-23)</t>
   </si>
   <si>
     <t>AGO</t>
@@ -84,6 +84,9 @@
     <t>Botswana</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -180,9 +183,6 @@
     <t>Equatorial Guinea*</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>GAB</t>
   </si>
   <si>
@@ -543,13 +543,10 @@
     <t>Source: UNESCO Institute for Statistics (UIS) Database (retrieved 17/11/2021).</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -565,33 +562,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -604,6 +586,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -677,6 +667,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -685,10 +682,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -703,13 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,24 +734,24 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -750,7 +760,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -758,20 +768,20 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -779,7 +789,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -789,7 +799,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -797,77 +807,25 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,199 +834,299 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1384,21 +1442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DAD0B2-2B75-4189-B82F-628A803B18F4}">
-  <sheetPr codeName="Sheet17">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E78075-AA48-4980-9E51-70749746D26B}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1485,37 +1541,37 @@
       <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15">
-        <v>97.456289999999996</v>
-      </c>
-      <c r="D4" s="16">
-        <v>99.139539999999997</v>
-      </c>
-      <c r="E4" s="16">
-        <v>95.754750000000001</v>
-      </c>
-      <c r="F4" s="17">
-        <v>1.0341400000000001</v>
-      </c>
-      <c r="G4" s="15">
-        <v>86.823179999999994</v>
-      </c>
-      <c r="H4" s="16">
-        <v>87.451210000000003</v>
-      </c>
-      <c r="I4" s="16">
-        <v>86.122140000000002</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1.0152000000000001</v>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="19">
         <v>95.469369999999998</v>
@@ -1544,10 +1600,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="19">
         <v>86.632199999999997</v>
@@ -1576,10 +1632,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="19">
         <v>72.935609999999997</v>
@@ -1608,10 +1664,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="19">
         <v>70.912450000000007</v>
@@ -1640,10 +1696,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="19">
         <v>95.164900000000003</v>
@@ -1672,10 +1728,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="19">
         <v>98.409530000000004</v>
@@ -1704,10 +1760,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="15">
         <v>92.091570000000004</v>
@@ -1736,106 +1792,106 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19">
+      <c r="B12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23">
         <v>90.428120000000007</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="24">
         <v>93.18835</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="24">
         <v>87.591859999999997</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="25">
         <v>1.06006</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="23">
         <v>88.693420000000003</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="24">
         <v>88.283829999999995</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="24">
         <v>89.185370000000006</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="25">
         <v>0.98989000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="24">
-        <v>87.693117000000001</v>
-      </c>
-      <c r="D13" s="25">
-        <v>87.910991999999993</v>
-      </c>
-      <c r="E13" s="25">
-        <v>87.652186</v>
-      </c>
-      <c r="F13" s="26">
-        <v>0.99836100000000005</v>
-      </c>
-      <c r="G13" s="24">
-        <v>80.269846000000001</v>
-      </c>
-      <c r="H13" s="25">
-        <v>77.717212000000004</v>
-      </c>
-      <c r="I13" s="25">
-        <v>83.144409999999993</v>
-      </c>
-      <c r="J13" s="26">
-        <v>0.92666800000000005</v>
+      <c r="B13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="28">
+        <v>86.608320000000006</v>
+      </c>
+      <c r="D13" s="29">
+        <v>86.663375555555604</v>
+      </c>
+      <c r="E13" s="29">
+        <v>86.751901111111096</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.99438555555555996</v>
+      </c>
+      <c r="G13" s="28">
+        <v>79.541697777777799</v>
+      </c>
+      <c r="H13" s="29">
+        <v>76.635656666666705</v>
+      </c>
+      <c r="I13" s="29">
+        <v>82.813551111111096</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0.91683111111111004</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="19">
+      <c r="B14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="32">
         <v>88.221770000000006</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="33">
         <v>85.618549999999999</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="33">
         <v>91.034149999999997</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="34">
         <v>0.94050999999999996</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="32">
         <v>68.375330000000005</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="33">
         <v>61.223689999999998</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="33">
         <v>76.296049999999994</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="34">
         <v>0.80245</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="19">
         <v>85.08</v>
@@ -1864,10 +1920,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="19">
         <v>38.268650000000001</v>
@@ -1896,74 +1952,74 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="28">
+      <c r="B17" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="36">
         <v>30.791609999999999</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="37">
         <v>22.387149999999998</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="37">
         <v>40.692889999999998</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="38">
         <v>0.55015000000000003</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="36">
         <v>22.31155</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="37">
         <v>13.95523</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="37">
         <v>31.328790000000001</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="38">
         <v>0.44544</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="28">
+      <c r="B18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="36">
         <v>82.054789999999997</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="37">
         <v>78.742310000000003</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="37">
         <v>85.341650000000001</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="38">
         <v>0.92266999999999999</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="36">
         <v>80.298760000000001</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="37">
         <v>74.618759999999995</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="37">
         <v>86.076509999999999</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="38">
         <v>0.86689000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>84.989509999999996</v>
@@ -1992,65 +2048,65 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>47</v>
+      <c r="C20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="36">
         <v>89.783659999999998</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="37">
         <v>91.449380000000005</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="37">
         <v>88.141959999999997</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="38">
         <v>1.03617</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="36">
         <v>84.667159999999996</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="37">
         <v>83.423969999999997</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="37">
         <v>85.852350000000001</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="38">
         <v>0.97170999999999996</v>
       </c>
     </row>
@@ -2058,63 +2114,63 @@
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="23">
         <v>97.782550000000001</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="24">
         <v>97.854179999999999</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="24">
         <v>97.712459999999993</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="25">
         <v>1.00145</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="23">
         <v>92.816640000000007</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="24">
         <v>89.515730000000005</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="24">
         <v>96.162679999999995</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="25">
         <v>0.93088000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="28">
         <v>74.621567499999998</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="29">
         <v>70.860383749999997</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="29">
         <v>78.676126249999996</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="30">
         <v>0.85841000000000001</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="28">
         <v>67.497372499999997</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="29">
         <v>60.822501250000002</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="29">
         <v>74.547962499999997</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="30">
         <v>0.76939000000000002</v>
       </c>
     </row>
@@ -2122,31 +2178,31 @@
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="32">
         <v>78.270390000000006</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="33">
         <v>78.302359999999993</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="33">
         <v>78.239410000000007</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="34">
         <v>1.0007999999999999</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="32">
         <v>58.817019999999999</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="33">
         <v>52.956389999999999</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="33">
         <v>64.644199999999998</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="34">
         <v>0.81920000000000004</v>
       </c>
     </row>
@@ -2158,28 +2214,28 @@
         <v>56</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2414,59 +2470,59 @@
         <v>72</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="36">
         <v>47.900959999999998</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="37">
         <v>47.369199999999999</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="37">
         <v>48.425139999999999</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="38">
         <v>0.97819</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="36">
         <v>34.522759999999998</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="37">
         <v>28.864260000000002</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="37">
         <v>40.264809999999997</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="38">
         <v>0.71686000000000005</v>
       </c>
     </row>
@@ -2538,63 +2594,63 @@
       <c r="A37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="23">
         <v>89.39631</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="24">
         <v>89.950640000000007</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="24">
         <v>88.826899999999995</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="25">
         <v>1.0124899999999999</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="23">
         <v>76.527500000000003</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="24">
         <v>70.838059999999999</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="24">
         <v>82.656009999999995</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="25">
         <v>0.85702</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="28">
         <v>82.719665000000006</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="29">
         <v>82.762997499999997</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="29">
         <v>82.678826666666694</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="30">
         <v>0.99973000000000001</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="28">
         <v>71.284727500000002</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="29">
         <v>66.9629975</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="29">
         <v>75.792895000000001</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="30">
         <v>0.86957333333332998</v>
       </c>
     </row>
@@ -2602,31 +2658,31 @@
       <c r="A39" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="11">
         <v>97.426519999999996</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="12">
         <v>97.252160000000003</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="12">
         <v>97.594059999999999</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="13">
         <v>0.99650000000000005</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="11">
         <v>81.407839999999993</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="12">
         <v>75.322969999999998</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="12">
         <v>87.422960000000003</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="13">
         <v>0.86158999999999997</v>
       </c>
     </row>
@@ -2666,63 +2722,63 @@
       <c r="A41" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>47</v>
+      <c r="C41" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="36">
         <v>63.947809999999997</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="37">
         <v>56.760719999999999</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="37">
         <v>70.936329999999998</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="38">
         <v>0.80015999999999998</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="36">
         <v>53.497590000000002</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="37">
         <v>43.354390000000002</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="37">
         <v>63.748550000000002</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="38">
         <v>0.68008000000000002</v>
       </c>
     </row>
@@ -2762,63 +2818,63 @@
       <c r="A44" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="23">
         <v>96.209100000000007</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="24">
         <v>95.801190000000005</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="24">
         <v>96.611840000000001</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="25">
         <v>0.99160999999999999</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="23">
         <v>79.036429999999996</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="24">
         <v>72.223770000000002</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="24">
         <v>86.060119999999998</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="25">
         <v>0.83921999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="28">
         <v>88.701198000000005</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="29">
         <v>86.804924</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="29">
         <v>90.533122000000006</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="30">
         <v>0.95037400000000005</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="28">
         <v>71.772024000000002</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="29">
         <v>64.199640000000002</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="29">
         <v>79.405640000000005</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="30">
         <v>0.80252400000000002</v>
       </c>
     </row>
@@ -2826,31 +2882,31 @@
       <c r="A46" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="32">
         <v>60.948079999999997</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="33">
         <v>51.943620000000003</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="33">
         <v>69.761179999999996</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="34">
         <v>0.74458999999999997</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="32">
         <v>42.362400000000001</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="33">
         <v>31.071650000000002</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="33">
         <v>53.977029999999999</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="34">
         <v>0.57565</v>
       </c>
     </row>
@@ -2890,31 +2946,31 @@
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="36">
         <v>98.111310000000003</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="37">
         <v>98.730180000000004</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="37">
         <v>97.585009999999997</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="38">
         <v>1.0116000000000001</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="36">
         <v>86.790289999999999</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="37">
         <v>82.04222</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="37">
         <v>91.69144</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="38">
         <v>0.89476</v>
       </c>
     </row>
@@ -3274,1457 +3330,1458 @@
       <c r="A60" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="41">
         <v>87.891440000000003</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="42">
         <v>84.005650000000003</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="42">
         <v>92.082840000000004</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="43">
         <v>0.91227999999999998</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="41">
         <v>66.537080000000003</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="42">
         <v>55.051499999999997</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="42">
         <v>79.991690000000006</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="43">
         <v>0.68822000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="28">
         <v>67.974553333333404</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="29">
         <v>61.969295333333299</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="29">
         <v>74.632891333333404</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="30">
         <v>0.815496</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="28">
         <v>54.078734666666698</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="29">
         <v>44.706065333333299</v>
       </c>
-      <c r="I61" s="25">
+      <c r="I61" s="29">
         <v>64.286316666666707</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="30">
         <v>0.66791800000000001</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="33" t="s">
+      <c r="A62" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="34">
-        <v>78.593279600000002</v>
-      </c>
-      <c r="D62" s="35">
-        <v>76.054260200000002</v>
-      </c>
-      <c r="E62" s="35">
-        <v>81.404715400000001</v>
-      </c>
-      <c r="F62" s="36">
-        <v>0.91663919999999999</v>
-      </c>
-      <c r="G62" s="34">
-        <v>67.362706200000005</v>
-      </c>
-      <c r="H62" s="35">
-        <v>61.177945600000001</v>
-      </c>
-      <c r="I62" s="35">
-        <v>73.973309799999996</v>
-      </c>
-      <c r="J62" s="36">
-        <v>0.79776139999999995</v>
+      <c r="C62" s="46">
+        <v>78.208320204081701</v>
+      </c>
+      <c r="D62" s="47">
+        <v>75.583132040816395</v>
+      </c>
+      <c r="E62" s="47">
+        <v>81.111857551020407</v>
+      </c>
+      <c r="F62" s="48">
+        <v>0.91424122448980005</v>
+      </c>
+      <c r="G62" s="46">
+        <v>66.965553673469401</v>
+      </c>
+      <c r="H62" s="47">
+        <v>60.641756530612199</v>
+      </c>
+      <c r="I62" s="47">
+        <v>73.725374489795897</v>
+      </c>
+      <c r="J62" s="48">
+        <v>0.79332387755101996</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="37" t="s">
+      <c r="A63" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="38">
-        <v>97.124107380952395</v>
-      </c>
-      <c r="D63" s="39">
-        <v>96.993711666666698</v>
-      </c>
-      <c r="E63" s="39">
-        <v>97.284585357142902</v>
-      </c>
-      <c r="F63" s="40">
-        <v>0.99524880952381001</v>
-      </c>
-      <c r="G63" s="38">
-        <v>92.493392</v>
-      </c>
-      <c r="H63" s="39">
-        <v>91.049872470588198</v>
-      </c>
-      <c r="I63" s="39">
-        <v>93.952597294117595</v>
-      </c>
-      <c r="J63" s="40">
-        <v>0.96285776470588003</v>
+      <c r="C63" s="50">
+        <v>97.093525180722906</v>
+      </c>
+      <c r="D63" s="51">
+        <v>96.961497710843403</v>
+      </c>
+      <c r="E63" s="51">
+        <v>97.255994216867506</v>
+      </c>
+      <c r="F63" s="52">
+        <v>0.99519036144577999</v>
+      </c>
+      <c r="G63" s="50">
+        <v>92.439839880952405</v>
+      </c>
+      <c r="H63" s="51">
+        <v>91.003912738095195</v>
+      </c>
+      <c r="I63" s="51">
+        <v>93.890410595238095</v>
+      </c>
+      <c r="J63" s="52">
+        <v>0.96292761904762003</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="55">
         <v>97.5552858333334</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="56">
         <v>97.856585416666704</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="56">
         <v>97.264937083333393</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="57">
         <v>1.0060150000000001</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="55">
         <v>92.2380876</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="56">
         <v>91.667259200000004</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="56">
         <v>92.8557536</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="57">
         <v>0.98584000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="33" t="s">
+      <c r="A65" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="58">
         <v>94.159400000000005</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="59">
         <v>93.293322222222301</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="59">
         <v>95.0471537037037</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="60">
         <v>0.97658814814814998</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="58">
         <v>86.209238518518504</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="59">
         <v>82.7912888888889</v>
       </c>
-      <c r="I65" s="44">
+      <c r="I65" s="59">
         <v>89.690868518518499</v>
       </c>
-      <c r="J65" s="45">
+      <c r="J65" s="60">
         <v>0.90776037037037005</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="46" t="s">
+      <c r="A66" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="47">
-        <v>90.209619402985098</v>
-      </c>
-      <c r="D66" s="48">
-        <v>89.180483507462696</v>
-      </c>
-      <c r="E66" s="48">
-        <v>91.359260746268703</v>
-      </c>
-      <c r="F66" s="49">
-        <v>0.96591686567164003</v>
-      </c>
-      <c r="G66" s="47">
-        <v>83.185730592592606</v>
-      </c>
-      <c r="H66" s="48">
-        <v>79.986195851851903</v>
-      </c>
-      <c r="I66" s="48">
-        <v>86.552861185185193</v>
-      </c>
-      <c r="J66" s="49">
-        <v>0.90171096296296005</v>
+      <c r="C66" s="62">
+        <v>90.083108181818204</v>
+      </c>
+      <c r="D66" s="63">
+        <v>89.025589242424303</v>
+      </c>
+      <c r="E66" s="63">
+        <v>91.263095000000007</v>
+      </c>
+      <c r="F66" s="64">
+        <v>0.96514106060605998</v>
+      </c>
+      <c r="G66" s="62">
+        <v>83.054576541353399</v>
+      </c>
+      <c r="H66" s="63">
+        <v>79.817855187969997</v>
+      </c>
+      <c r="I66" s="63">
+        <v>86.461186766917294</v>
+      </c>
+      <c r="J66" s="64">
+        <v>0.90044203007518997</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="50" t="s">
+      <c r="A67" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="58">
         <v>87.084305000000001</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="59">
         <v>86.888260555555604</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="59">
         <v>87.318829444444503</v>
       </c>
-      <c r="F67" s="53">
+      <c r="F67" s="60">
         <v>0.99507888888888996</v>
       </c>
-      <c r="G67" s="51">
+      <c r="G67" s="58">
         <v>75.812984999999998</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="59">
         <v>71.231393333333401</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="59">
         <v>80.624958888888898</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="60">
         <v>0.87721944444444</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="33" t="s">
+      <c r="A68" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="58">
         <v>69.354127272727297</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="59">
         <v>64.433781818181799</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="59">
         <v>74.776758636363596</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="60">
         <v>0.83757409090908996</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="58">
         <v>54.969715454545501</v>
       </c>
-      <c r="H68" s="44">
+      <c r="H68" s="59">
         <v>46.264052272727298</v>
       </c>
-      <c r="I68" s="44">
+      <c r="I68" s="59">
         <v>64.309452727272699</v>
       </c>
-      <c r="J68" s="45">
+      <c r="J68" s="60">
         <v>0.69045590909091004</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="33" t="s">
+      <c r="A69" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="58">
         <v>81.512351428571407</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="59">
         <v>80.553692857142906</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="59">
         <v>82.596598571428601</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="60">
         <v>0.97614714285713999</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="58">
         <v>69.872294285714304</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="59">
         <v>64.014755714285698</v>
       </c>
-      <c r="I69" s="44">
+      <c r="I69" s="59">
         <v>76.2134342857143</v>
       </c>
-      <c r="J69" s="45">
+      <c r="J69" s="60">
         <v>0.83153285714285996</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" s="33" t="s">
+      <c r="A70" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="58">
         <v>76.089644000000007</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="59">
         <v>72.597002000000003</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="59">
         <v>79.859731999999994</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="60">
         <v>0.87462200000000001</v>
       </c>
-      <c r="G70" s="43">
+      <c r="G70" s="58">
         <v>67.922467999999995</v>
       </c>
-      <c r="H70" s="44">
+      <c r="H70" s="59">
         <v>60.938175999999999</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="59">
         <v>75.391665000000003</v>
       </c>
-      <c r="J70" s="45">
+      <c r="J70" s="60">
         <v>0.77176599999999995</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="33" t="s">
+      <c r="A71" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="58">
         <v>67.974553333333404</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="59">
         <v>61.969295333333299</v>
       </c>
-      <c r="E71" s="44">
+      <c r="E71" s="59">
         <v>74.632891333333404</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="60">
         <v>0.815496</v>
       </c>
-      <c r="G71" s="43">
+      <c r="G71" s="58">
         <v>54.078734666666698</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="59">
         <v>44.706065333333299</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="59">
         <v>64.286316666666707</v>
       </c>
-      <c r="J71" s="45">
+      <c r="J71" s="60">
         <v>0.66791800000000001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="33" t="s">
+      <c r="A72" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="58">
         <v>74.176417999999998</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="59">
         <v>74.172470000000004</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="59">
         <v>74.174552000000006</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="60">
         <v>0.99770400000000004</v>
       </c>
-      <c r="G72" s="43">
+      <c r="G72" s="58">
         <v>61.010717999999997</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="59">
         <v>55.675572000000003</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="59">
         <v>66.517251999999999</v>
       </c>
-      <c r="J72" s="45">
+      <c r="J72" s="60">
         <v>0.82010400000000006</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="33" t="s">
+      <c r="A73" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="43">
-        <v>87.744338124999999</v>
-      </c>
-      <c r="D73" s="44">
-        <v>87.493908125000004</v>
-      </c>
-      <c r="E73" s="44">
-        <v>88.163211250000003</v>
-      </c>
-      <c r="F73" s="45">
-        <v>0.98955000000000004</v>
-      </c>
-      <c r="G73" s="43">
-        <v>80.019885625000001</v>
-      </c>
-      <c r="H73" s="44">
-        <v>76.906842499999996</v>
-      </c>
-      <c r="I73" s="44">
-        <v>83.435326875000001</v>
-      </c>
-      <c r="J73" s="45">
-        <v>0.91502187499999998</v>
+      <c r="C73" s="58">
+        <v>87.096874666666693</v>
+      </c>
+      <c r="D73" s="59">
+        <v>86.717532666666699</v>
+      </c>
+      <c r="E73" s="59">
+        <v>87.657108666666701</v>
+      </c>
+      <c r="F73" s="60">
+        <v>0.98657733333332998</v>
+      </c>
+      <c r="G73" s="58">
+        <v>79.566332666666696</v>
+      </c>
+      <c r="H73" s="59">
+        <v>76.203884666666696</v>
+      </c>
+      <c r="I73" s="59">
+        <v>83.256206000000006</v>
+      </c>
+      <c r="J73" s="60">
+        <v>0.90834333333332995</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="33" t="s">
+      <c r="A74" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="58">
         <v>88.828357499999996</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="59">
         <v>86.803517499999998</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="59">
         <v>90.795557500000001</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="60">
         <v>0.94543500000000003</v>
       </c>
-      <c r="G74" s="43">
+      <c r="G74" s="58">
         <v>71.922967499999999</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="59">
         <v>63.873127500000002</v>
       </c>
-      <c r="I74" s="44">
+      <c r="I74" s="59">
         <v>80.133245000000002</v>
       </c>
-      <c r="J74" s="45">
+      <c r="J74" s="60">
         <v>0.78907000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="46" t="s">
+      <c r="A75" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="50">
         <v>80.927958000000004</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="51">
         <v>76.483115999999995</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="51">
         <v>85.734070000000003</v>
       </c>
-      <c r="F75" s="49">
+      <c r="F75" s="52">
         <v>0.87815799999999999</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="50">
         <v>70.374725999999995</v>
       </c>
-      <c r="H75" s="48">
+      <c r="H75" s="51">
         <v>61.205762</v>
       </c>
-      <c r="I75" s="48">
+      <c r="I75" s="51">
         <v>80.517138000000003</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J75" s="52">
         <v>0.73624800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="50" t="s">
+      <c r="A76" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="66">
         <v>97.143215999999995</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="67">
         <v>97.114168000000006</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="67">
         <v>97.176111000000006</v>
       </c>
-      <c r="F76" s="53">
+      <c r="F76" s="68">
         <v>0.99925299999999995</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="66">
         <v>92.572111000000007</v>
       </c>
-      <c r="H76" s="52">
+      <c r="H76" s="67">
         <v>90.517522</v>
       </c>
-      <c r="I76" s="52">
+      <c r="I76" s="67">
         <v>94.740992000000006</v>
       </c>
-      <c r="J76" s="53">
+      <c r="J76" s="68">
         <v>0.95387200000000005</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="33" t="s">
+      <c r="A77" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="58">
         <v>98.841070000000002</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="59">
         <v>98.987736666666706</v>
       </c>
-      <c r="E77" s="44">
+      <c r="E77" s="59">
         <v>98.698756666666696</v>
       </c>
-      <c r="F77" s="45">
+      <c r="F77" s="60">
         <v>1.0029224999999999</v>
       </c>
-      <c r="G77" s="43">
+      <c r="G77" s="58">
         <v>94.609506666666704</v>
       </c>
-      <c r="H77" s="44">
+      <c r="H77" s="59">
         <v>93.830447500000005</v>
       </c>
-      <c r="I77" s="44">
+      <c r="I77" s="59">
         <v>95.413752500000001</v>
       </c>
-      <c r="J77" s="45">
+      <c r="J77" s="60">
         <v>0.98342499999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="33" t="s">
+      <c r="A78" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="58">
         <v>99.502804444444493</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="59">
         <v>99.581906666666697</v>
       </c>
-      <c r="E78" s="44">
+      <c r="E78" s="59">
         <v>99.448632222222301</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="60">
         <v>1.0013377777777801</v>
       </c>
-      <c r="G78" s="43">
+      <c r="G78" s="58">
         <v>98.206751111111203</v>
       </c>
-      <c r="H78" s="44">
+      <c r="H78" s="59">
         <v>98.091163333333398</v>
       </c>
-      <c r="I78" s="44">
+      <c r="I78" s="59">
         <v>98.341725555555598</v>
       </c>
-      <c r="J78" s="45">
+      <c r="J78" s="60">
         <v>0.99752666666667</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="46" t="s">
+      <c r="A79" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="62">
         <v>99.436281666666702</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="63">
         <v>99.507579166666702</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="63">
         <v>99.382738333333407</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="64">
         <v>1.0012558333333299</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="62">
         <v>97.700460833333395</v>
       </c>
-      <c r="H79" s="48">
+      <c r="H79" s="63">
         <v>97.273721666666702</v>
       </c>
-      <c r="I79" s="48">
+      <c r="I79" s="63">
         <v>98.146425833333296</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J79" s="64">
         <v>0.99112333333333003</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="50" t="s">
+      <c r="A80" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="58">
         <v>73.430973750000007</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="59">
         <v>70.409528750000007</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="59">
         <v>76.697427500000003</v>
       </c>
-      <c r="F80" s="53">
+      <c r="F80" s="60">
         <v>0.89090000000000003</v>
       </c>
-      <c r="G80" s="51">
+      <c r="G80" s="58">
         <v>63.690757499999997</v>
       </c>
-      <c r="H80" s="52">
+      <c r="H80" s="59">
         <v>56.873626250000001</v>
       </c>
-      <c r="I80" s="52">
+      <c r="I80" s="59">
         <v>70.794944999999998</v>
       </c>
-      <c r="J80" s="53">
+      <c r="J80" s="60">
         <v>0.76314249999999995</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="33" t="s">
+      <c r="A81" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="58">
         <v>97.758459999999999</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="59">
         <v>97.938018888888905</v>
       </c>
-      <c r="E81" s="44">
+      <c r="E81" s="59">
         <v>97.660330555555603</v>
       </c>
-      <c r="F81" s="45">
+      <c r="F81" s="60">
         <v>1.0029744444444399</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="58">
         <v>94.470420555555606</v>
       </c>
-      <c r="H81" s="44">
+      <c r="H81" s="59">
         <v>93.184627777777806</v>
       </c>
-      <c r="I81" s="44">
+      <c r="I81" s="59">
         <v>95.640533888888896</v>
       </c>
-      <c r="J81" s="45">
+      <c r="J81" s="60">
         <v>0.97235333333332996</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="33" t="s">
+      <c r="A82" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="43">
-        <v>79.576575952381006</v>
-      </c>
-      <c r="D82" s="44">
-        <v>77.129447142857202</v>
-      </c>
-      <c r="E82" s="44">
-        <v>82.301341666666701</v>
-      </c>
-      <c r="F82" s="45">
-        <v>0.92154190476191</v>
-      </c>
-      <c r="G82" s="43">
-        <v>68.062124999999995</v>
-      </c>
-      <c r="H82" s="44">
-        <v>61.997815952381004</v>
-      </c>
-      <c r="I82" s="44">
-        <v>74.578712619047593</v>
-      </c>
-      <c r="J82" s="45">
-        <v>0.80435547619047998</v>
+      <c r="C82" s="58">
+        <v>79.140485365853706</v>
+      </c>
+      <c r="D82" s="59">
+        <v>76.592615609756095</v>
+      </c>
+      <c r="E82" s="59">
+        <v>81.973209756097603</v>
+      </c>
+      <c r="F82" s="60">
+        <v>0.91879560975609997</v>
+      </c>
+      <c r="G82" s="58">
+        <v>67.604538292683003</v>
+      </c>
+      <c r="H82" s="59">
+        <v>61.377001463414601</v>
+      </c>
+      <c r="I82" s="59">
+        <v>74.297165609756107</v>
+      </c>
+      <c r="J82" s="60">
+        <v>0.79921292682927003</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="46" t="s">
+      <c r="A83" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="47">
-        <v>96.951102121212202</v>
-      </c>
-      <c r="D83" s="48">
-        <v>96.736173333333397</v>
-      </c>
-      <c r="E83" s="48">
-        <v>97.182109393939399</v>
-      </c>
-      <c r="F83" s="49">
-        <v>0.99314181818182001</v>
-      </c>
-      <c r="G83" s="47">
-        <v>91.962249999999997</v>
-      </c>
-      <c r="H83" s="48">
-        <v>90.476356119402993</v>
-      </c>
-      <c r="I83" s="48">
-        <v>93.4991217910448</v>
-      </c>
-      <c r="J83" s="49">
-        <v>0.96030671641790999</v>
+      <c r="C83" s="50">
+        <v>96.909389384615395</v>
+      </c>
+      <c r="D83" s="51">
+        <v>96.691076461538501</v>
+      </c>
+      <c r="E83" s="51">
+        <v>97.144024153846203</v>
+      </c>
+      <c r="F83" s="52">
+        <v>0.99303476923077005</v>
+      </c>
+      <c r="G83" s="50">
+        <v>91.886045151515205</v>
+      </c>
+      <c r="H83" s="51">
+        <v>90.409172272727304</v>
+      </c>
+      <c r="I83" s="51">
+        <v>93.413104242424197</v>
+      </c>
+      <c r="J83" s="52">
+        <v>0.96035696969697004</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="66">
         <v>67.370562380952407</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="67">
         <v>63.4995990476191</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="67">
         <v>71.524729047619104</v>
       </c>
-      <c r="F84" s="53">
+      <c r="F84" s="68">
         <v>0.86600714285713998</v>
       </c>
-      <c r="G84" s="51">
+      <c r="G84" s="66">
         <v>54.165234285714298</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="67">
         <v>45.8404114285714</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="67">
         <v>63.208880000000001</v>
       </c>
-      <c r="J84" s="53">
+      <c r="J84" s="68">
         <v>0.70082380952380996</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="33" t="s">
+      <c r="A85" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="58">
         <v>55.929400000000001</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="59">
         <v>41.593719999999998</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="59">
         <v>71.243939999999995</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="60">
         <v>0.58382000000000001</v>
       </c>
-      <c r="G85" s="43">
+      <c r="G85" s="58">
         <v>37.266039999999997</v>
       </c>
-      <c r="H85" s="44">
+      <c r="H85" s="59">
         <v>22.60078</v>
       </c>
-      <c r="I85" s="44">
+      <c r="I85" s="59">
         <v>52.063429999999997</v>
       </c>
-      <c r="J85" s="45">
+      <c r="J85" s="60">
         <v>0.43409999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="33" t="s">
+      <c r="A86" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="43">
+      <c r="C86" s="58">
         <v>84.171989565217402</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="59">
         <v>81.941351304347904</v>
       </c>
-      <c r="E86" s="44">
+      <c r="E86" s="59">
         <v>86.735919999999993</v>
       </c>
-      <c r="F86" s="45">
+      <c r="F86" s="60">
         <v>0.93602695652173995</v>
       </c>
-      <c r="G86" s="43">
+      <c r="G86" s="58">
         <v>73.279639565217394</v>
       </c>
-      <c r="H86" s="44">
+      <c r="H86" s="59">
         <v>67.551620869565198</v>
       </c>
-      <c r="I86" s="44">
+      <c r="I86" s="59">
         <v>79.276635652173994</v>
       </c>
-      <c r="J86" s="45">
+      <c r="J86" s="60">
         <v>0.83606695652174001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="33" t="s">
+      <c r="A87" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="43">
+      <c r="C87" s="58">
         <v>94.611870400000001</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="59">
         <v>94.402587999999994</v>
       </c>
-      <c r="E87" s="44">
+      <c r="E87" s="59">
         <v>94.806750399999999</v>
       </c>
-      <c r="F87" s="45">
+      <c r="F87" s="60">
         <v>0.99453800000000003</v>
       </c>
-      <c r="G87" s="43">
+      <c r="G87" s="58">
         <v>85.505606</v>
       </c>
-      <c r="H87" s="44">
+      <c r="H87" s="59">
         <v>82.548317999999995</v>
       </c>
-      <c r="I87" s="44">
+      <c r="I87" s="59">
         <v>88.550234799999998</v>
       </c>
-      <c r="J87" s="45">
+      <c r="J87" s="60">
         <v>0.92467600000000005</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="33" t="s">
+      <c r="A88" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="43">
-        <v>95.971282000000002</v>
-      </c>
-      <c r="D88" s="44">
-        <v>96.994069999999994</v>
-      </c>
-      <c r="E88" s="44">
-        <v>94.946060000000003</v>
-      </c>
-      <c r="F88" s="45">
-        <v>1.02135</v>
-      </c>
-      <c r="G88" s="43">
-        <v>89.873193999999998</v>
-      </c>
-      <c r="H88" s="44">
-        <v>89.242232000000001</v>
-      </c>
-      <c r="I88" s="44">
-        <v>90.500926000000007</v>
-      </c>
-      <c r="J88" s="45">
-        <v>0.98629800000000001</v>
+      <c r="C88" s="58">
+        <v>95.600030000000004</v>
+      </c>
+      <c r="D88" s="59">
+        <v>96.457702499999996</v>
+      </c>
+      <c r="E88" s="59">
+        <v>94.7438875</v>
+      </c>
+      <c r="F88" s="60">
+        <v>1.0181525</v>
+      </c>
+      <c r="G88" s="58">
+        <v>90.635697500000006</v>
+      </c>
+      <c r="H88" s="59">
+        <v>89.689987500000001</v>
+      </c>
+      <c r="I88" s="59">
+        <v>91.595622500000005</v>
+      </c>
+      <c r="J88" s="60">
+        <v>0.97907250000000001</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" s="33" t="s">
+      <c r="A89" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="43">
-        <v>98.8763763888889</v>
-      </c>
-      <c r="D89" s="44">
-        <v>98.983739166666695</v>
-      </c>
-      <c r="E89" s="44">
-        <v>98.777743333333405</v>
-      </c>
-      <c r="F89" s="45">
-        <v>1.00203222222222</v>
-      </c>
-      <c r="G89" s="43">
-        <v>95.987142222222204</v>
-      </c>
-      <c r="H89" s="44">
-        <v>95.278075000000001</v>
-      </c>
-      <c r="I89" s="44">
-        <v>96.717445555555599</v>
-      </c>
-      <c r="J89" s="45">
-        <v>0.98472499999999996</v>
+      <c r="C89" s="58">
+        <v>98.853917714285799</v>
+      </c>
+      <c r="D89" s="59">
+        <v>98.964203999999995</v>
+      </c>
+      <c r="E89" s="59">
+        <v>98.752603142857197</v>
+      </c>
+      <c r="F89" s="60">
+        <v>1.0020874285714301</v>
+      </c>
+      <c r="G89" s="58">
+        <v>95.958438571428601</v>
+      </c>
+      <c r="H89" s="59">
+        <v>95.288577428571401</v>
+      </c>
+      <c r="I89" s="59">
+        <v>96.647193142857205</v>
+      </c>
+      <c r="J89" s="60">
+        <v>0.98551742857142999</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="46" t="s">
+      <c r="A90" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="62">
         <v>98.998172727272802</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="63">
         <v>99.223007727272702</v>
       </c>
-      <c r="E90" s="48">
+      <c r="E90" s="63">
         <v>98.8459895454546</v>
       </c>
-      <c r="F90" s="49">
+      <c r="F90" s="64">
         <v>1.00383363636364</v>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="62">
         <v>96.966766521739203</v>
       </c>
-      <c r="H90" s="48">
+      <c r="H90" s="63">
         <v>96.611140000000006</v>
       </c>
-      <c r="I90" s="48">
+      <c r="I90" s="63">
         <v>97.247655652173904</v>
       </c>
-      <c r="J90" s="49">
+      <c r="J90" s="64">
         <v>0.99346739130435002</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="50" t="s">
+      <c r="A91" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="58">
         <v>70.356761612903199</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="59">
         <v>66.649946774193594</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="59">
         <v>74.449295161290294</v>
       </c>
-      <c r="F91" s="53">
+      <c r="F91" s="60">
         <v>0.87564096774194</v>
       </c>
-      <c r="G91" s="51">
+      <c r="G91" s="58">
         <v>57.541360322580701</v>
       </c>
-      <c r="H91" s="52">
+      <c r="H91" s="59">
         <v>49.7276545161291</v>
       </c>
-      <c r="I91" s="52">
+      <c r="I91" s="59">
         <v>66.022259354838695</v>
       </c>
-      <c r="J91" s="53">
+      <c r="J91" s="60">
         <v>0.72618064516128999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92" s="33" t="s">
+      <c r="A92" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="43">
+      <c r="C92" s="58">
         <v>86.176048750000007</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D92" s="59">
         <v>84.281066249999995</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="59">
         <v>88.224192500000001</v>
       </c>
-      <c r="F92" s="45">
+      <c r="F92" s="60">
         <v>0.94562000000000002</v>
       </c>
-      <c r="G92" s="43">
+      <c r="G92" s="58">
         <v>70.512378749999996</v>
       </c>
-      <c r="H92" s="44">
+      <c r="H92" s="59">
         <v>64.691871250000005</v>
       </c>
-      <c r="I92" s="44">
+      <c r="I92" s="59">
         <v>76.813062500000001</v>
       </c>
-      <c r="J92" s="45">
+      <c r="J92" s="60">
         <v>0.82365624999999998</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" s="33" t="s">
+      <c r="A93" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="43">
+      <c r="C93" s="58">
         <v>88.779771666666704</v>
       </c>
-      <c r="D93" s="44">
+      <c r="D93" s="59">
         <v>87.266076666666706</v>
       </c>
-      <c r="E93" s="44">
+      <c r="E93" s="59">
         <v>90.347531666666697</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="60">
         <v>0.95480166666666999</v>
       </c>
-      <c r="G93" s="43">
+      <c r="G93" s="58">
         <v>78.533034999999998</v>
       </c>
-      <c r="H93" s="44">
+      <c r="H93" s="59">
         <v>73.499904999999998</v>
       </c>
-      <c r="I93" s="44">
+      <c r="I93" s="59">
         <v>83.904233333333394</v>
       </c>
-      <c r="J93" s="45">
+      <c r="J93" s="60">
         <v>0.85114000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="33" t="s">
+      <c r="A94" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="58">
         <v>96.3071985714286</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="59">
         <v>96.683132857142894</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="59">
         <v>95.948515</v>
       </c>
-      <c r="F94" s="45">
+      <c r="F94" s="60">
         <v>1.00761428571429</v>
       </c>
-      <c r="G94" s="43">
+      <c r="G94" s="58">
         <v>91.108957333333393</v>
       </c>
-      <c r="H94" s="44">
+      <c r="H94" s="59">
         <v>90.690535999999994</v>
       </c>
-      <c r="I94" s="44">
+      <c r="I94" s="59">
         <v>91.531800666666697</v>
       </c>
-      <c r="J94" s="45">
+      <c r="J94" s="60">
         <v>0.98721800000000004</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B95" s="33" t="s">
+      <c r="A95" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="43">
-        <v>71.083210625000007</v>
-      </c>
-      <c r="D95" s="44">
-        <v>69.436014374999999</v>
-      </c>
-      <c r="E95" s="44">
-        <v>72.943344999999994</v>
-      </c>
-      <c r="F95" s="45">
-        <v>0.91419312500000005</v>
-      </c>
-      <c r="G95" s="43">
-        <v>59.921229375000003</v>
-      </c>
-      <c r="H95" s="44">
-        <v>55.108016249999999</v>
-      </c>
-      <c r="I95" s="44">
-        <v>65.109941250000006</v>
-      </c>
-      <c r="J95" s="45">
-        <v>0.79337500000000005</v>
+      <c r="C95" s="58">
+        <v>69.325005333333394</v>
+      </c>
+      <c r="D95" s="59">
+        <v>67.455779333333396</v>
+      </c>
+      <c r="E95" s="59">
+        <v>71.422584666666694</v>
+      </c>
+      <c r="F95" s="60">
+        <v>0.90619666666666998</v>
+      </c>
+      <c r="G95" s="58">
+        <v>58.127766000000001</v>
+      </c>
+      <c r="H95" s="59">
+        <v>52.951803333333302</v>
+      </c>
+      <c r="I95" s="59">
+        <v>63.709128</v>
+      </c>
+      <c r="J95" s="60">
+        <v>0.77858666666666998</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B96" s="46" t="s">
+      <c r="A96" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="47">
+      <c r="C96" s="50">
         <v>95.565889374999998</v>
       </c>
-      <c r="D96" s="48">
+      <c r="D96" s="51">
         <v>94.462427500000004</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="51">
         <v>96.73821375</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96" s="52">
         <v>0.96947749999999999</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="50">
         <v>89.922199375000005</v>
       </c>
-      <c r="H96" s="48">
+      <c r="H96" s="51">
         <v>87.222699375000005</v>
       </c>
-      <c r="I96" s="48">
+      <c r="I96" s="51">
         <v>92.731848749999997</v>
       </c>
-      <c r="J96" s="49">
+      <c r="J96" s="52">
         <v>0.92005812499999995</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B97" s="50" t="s">
+      <c r="A97" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="66">
         <v>73.668772692307698</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="67">
         <v>69.921260769230798</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="67">
         <v>77.852894230769195</v>
       </c>
-      <c r="F97" s="53">
+      <c r="F97" s="68">
         <v>0.88409269230769005</v>
       </c>
-      <c r="G97" s="51">
+      <c r="G97" s="66">
         <v>62.093014615384597</v>
       </c>
-      <c r="H97" s="52">
+      <c r="H97" s="67">
         <v>55.0898015384616</v>
       </c>
-      <c r="I97" s="52">
+      <c r="I97" s="67">
         <v>69.698148846153899</v>
       </c>
-      <c r="J97" s="53">
+      <c r="J97" s="68">
         <v>0.76230192307692002</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="46" t="s">
+      <c r="A98" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="62">
         <v>93.047320769230794</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="63">
         <v>92.761195384615405</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="63">
         <v>93.315020769230799</v>
       </c>
-      <c r="F98" s="49">
+      <c r="F98" s="64">
         <v>0.99209307692308002</v>
       </c>
-      <c r="G98" s="47">
+      <c r="G98" s="62">
         <v>83.795082307692297</v>
       </c>
-      <c r="H98" s="48">
+      <c r="H98" s="63">
         <v>80.6872969230769</v>
       </c>
-      <c r="I98" s="48">
+      <c r="I98" s="63">
         <v>86.988493846153901</v>
       </c>
-      <c r="J98" s="49">
+      <c r="J98" s="64">
         <v>0.92114384615385003</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57"/>
-      <c r="J100" s="57"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="73"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="57"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="73"/>
+      <c r="J101" s="73"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="57"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="73"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="73"/>
+      <c r="E106" s="73"/>
+      <c r="F106" s="73"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="73"/>
+      <c r="J106" s="73"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="58"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="57"/>
-      <c r="J109" s="57"/>
+        <v>170</v>
+      </c>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="73"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="73"/>
+      <c r="F110" s="73"/>
+      <c r="G110" s="73"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="73"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="57"/>
-      <c r="J110" s="57"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
-      <c r="H112" s="57"/>
-      <c r="I112" s="57"/>
-      <c r="J112" s="57"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="73"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="73"/>
+      <c r="J112" s="73"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="57"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{E94AAE8B-A2BC-42F2-BB62-EE3481CA95BC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{75385F33-BB8D-4BD8-8E5B-D01D1BA3E2B8}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{3A1DF34E-C744-4CB2-954C-9AD5DBD9A9F7}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{E8DB230C-F008-411E-B078-F85C96D328BD}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{3C1E2B24-0D5F-4F82-9067-5AFD3FCEACC8}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CB1AA268-C6E7-4521-956C-82F63C1B58B4}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{44E25747-E4B5-4533-B8D2-A0C66FC05867}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EBFFF8F3-0DD0-40AD-9D42-92CDF51AA2B0}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2A410ECD-2652-4F62-BA43-B4130B1F27F7}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{9596419E-29BA-475D-B26F-2F45DE393AA0}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{C5BC5AD6-4D23-4B86-A5C1-6AFFF6BCBCD2}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{884E7222-74F5-4561-BC90-34A9ECAECCEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab06.xlsx
+++ b/AfDD_2024_Annex_Table_Tab06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE7E92B-11E7-46C1-9C07-E8F9D01DFBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A820BBD-1F2F-4FE1-ABDE-7641632ECC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F9CADBF7-2BE6-411D-861A-CD5507254CB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D9FA729-8E26-464F-9CE4-1C833628EC1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E78075-AA48-4980-9E51-70749746D26B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5094CE0D-6884-4AD5-8514-8458291FBE7E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4771,12 +4771,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{44E25747-E4B5-4533-B8D2-A0C66FC05867}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{EBFFF8F3-0DD0-40AD-9D42-92CDF51AA2B0}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2A410ECD-2652-4F62-BA43-B4130B1F27F7}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{9596419E-29BA-475D-B26F-2F45DE393AA0}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{C5BC5AD6-4D23-4B86-A5C1-6AFFF6BCBCD2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{884E7222-74F5-4561-BC90-34A9ECAECCEC}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{517F124D-BC2F-42AB-A794-C1EC037B4CC7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D5B0B74B-A51F-4306-A957-5D78B1B685B3}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CFD271AA-F6EF-4C8D-86C0-052993F9B8C1}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{06C08A12-32FE-4F3F-88C7-3FAC858750F2}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{F7231019-F6B5-4AF9-9AE9-F54CD6F3FE7C}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{38573476-1369-40C5-B87D-B280E4E96717}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab06.xlsx
+++ b/AfDD_2024_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A820BBD-1F2F-4FE1-ABDE-7641632ECC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E4AD1E-C801-4B4B-A676-8A2C64AE9693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D9FA729-8E26-464F-9CE4-1C833628EC1A}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{002CE34D-3775-4C07-8D2E-6E6D390905B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -1125,8 +1125,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5094CE0D-6884-4AD5-8514-8458291FBE7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F2F28-E328-4CFB-8DC3-E504CAB8C3C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1454,7 +1454,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4722,7 +4722,7 @@
       <c r="J110" s="73"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
+      <c r="B111" s="75" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="73"/>
@@ -4735,7 +4735,7 @@
       <c r="J111" s="73"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="75" t="s">
         <v>169</v>
       </c>
       <c r="C112" s="73"/>
@@ -4771,12 +4771,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{517F124D-BC2F-42AB-A794-C1EC037B4CC7}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D5B0B74B-A51F-4306-A957-5D78B1B685B3}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CFD271AA-F6EF-4C8D-86C0-052993F9B8C1}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{06C08A12-32FE-4F3F-88C7-3FAC858750F2}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{F7231019-F6B5-4AF9-9AE9-F54CD6F3FE7C}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{38573476-1369-40C5-B87D-B280E4E96717}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{61320D4A-DB00-4F69-884B-7DEC18AE48F8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DF601CD1-A74E-43A7-A4A7-F918701A3228}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F6F19CEC-10AE-4F8D-933D-ACDA5603E2CB}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{4BEF61D7-035C-4F9C-815F-5C351862FB2C}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{902A7AD0-B67D-4D97-86DF-A51AB8E3958E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{492F0DBC-64DC-480D-9932-C5F25B8708CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab06.xlsx
+++ b/AfDD_2024_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E4AD1E-C801-4B4B-A676-8A2C64AE9693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF26BE5B-C16F-4446-9FB3-6D556FE9BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{002CE34D-3775-4C07-8D2E-6E6D390905B5}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E5985B8B-99CE-423C-8CEE-A1E4C280CA5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3F2F28-E328-4CFB-8DC3-E504CAB8C3C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6AEFE4-8BAC-49EB-8C99-C3E80639CE7E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4771,12 +4771,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{61320D4A-DB00-4F69-884B-7DEC18AE48F8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DF601CD1-A74E-43A7-A4A7-F918701A3228}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F6F19CEC-10AE-4F8D-933D-ACDA5603E2CB}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{4BEF61D7-035C-4F9C-815F-5C351862FB2C}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{902A7AD0-B67D-4D97-86DF-A51AB8E3958E}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{492F0DBC-64DC-480D-9932-C5F25B8708CC}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{26119600-D128-4764-B41D-9E890A731A55}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{89F829EF-DCA5-4825-85FA-C8957DB9EBDB}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7B9C037A-53C8-46EF-914B-7EE8867C5012}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{9E962D2A-DD01-4B1C-BB5F-8EA4B4AF1A1C}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{BAF89C3D-FFA9-4EFC-A9D3-BFEBD68FF541}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{1C77035B-463C-4C70-85BD-C268DB808E3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
